--- a/Camininos_CAPUFE.xlsx
+++ b/Camininos_CAPUFE.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\Infraestructura Carretera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2ECBE0-5BDC-4DC7-8B42-9800DC1543FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF2BCB2-FE3D-44AB-B886-FC2A5FD51DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
-    <sheet name="C_11" sheetId="1" r:id="rId1"/>
+    <sheet name="C_12.2" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">C_11!$B$4:$G$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'C_12.2'!$B$4:$G$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
